--- a/SoftwareDesignUsingNLP/data/Healthcare Data/Domain.xlsx
+++ b/SoftwareDesignUsingNLP/data/Healthcare Data/Domain.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Domain" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,9 +135,6 @@
     <t>Patient Transfer</t>
   </si>
   <si>
-    <t>The use case deals with shifting the patient to an outpatient clinic based on the criticality of condition, entitlement of coverage.</t>
-  </si>
-  <si>
     <t xml:space="preserve">This will be used to provide preventive care health tips. It can be send to patient email address or phone if the patient opts for it. </t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>This use case will be used by doctor when his patients goes to the hospital after he has provided services. This will be used to contact doctors peer clinicians, in situations where he can provide information about the patient.  This will require doctor details and patient details like name, policy number and past records of issues faced</t>
+  </si>
+  <si>
+    <t>The use case deals with transferring the patient to an outpatient clinic based on the criticality of condition, entitlement of coverage.</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -650,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -661,7 +661,7 @@
         <v>21</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -672,7 +672,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -683,7 +683,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,7 +705,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -716,7 +716,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,7 +727,7 @@
         <v>26</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>30</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
